--- a/biology/Botanique/Melidiscus_giganteus/Melidiscus_giganteus.xlsx
+++ b/biology/Botanique/Melidiscus_giganteus/Melidiscus_giganteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melidiscus gigantea est une espèce de plantes à fleurs de la famille des Cleomaceae (anciennement des Capparaceae). Son synonyme Cleome gigantea est l'espèce type du genre Melidiscus Raf.
-Ce nom de taxon ancien a été réhabilité en 2017[1].
-Cette espèce a été introduite puis a disparu en Guyane[3].
+Ce nom de taxon ancien a été réhabilité en 2017.
+Cette espèce a été introduite puis a disparu en Guyane.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Cleome frutescens Aubl. (synonyme de Melidiscus giganteus)[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Cleome frutescens Aubl. (synonyme de Melidiscus giganteus) : 
 « CLEOME (fruteſcens) viſcoſa, foliis quinatis &amp; ſeptenatis, flore magno, albo, variegato.
 Sinapiſtrum arboreſcens, pentaphyllum, flore albo, folio anguſtiori. Plum. Cat. 6. Mſſ.147.t.4.
 TAVERIAYA. Georg. Marcgr. pag.33.fig.pag.34.
